--- a/Data/Weather Data/R94.xlsx
+++ b/Data/Weather Data/R94.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/FOOD/FOOD-Labs/BoorWiedmannLab/rtl72_Renee Lee/2020 USDA OREI/OREI Objective 1/Weather Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luxma\OneDrive\Documents\GitHub\OREI_ML_Inference\Data\Weather Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA61F0BC-0FE2-844F-941F-3E0D28E7EFA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0D06C5-5967-4FB2-A9C3-EF1E110EC721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7840" yWindow="500" windowWidth="19320" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6270" yWindow="4320" windowWidth="25290" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="121">
   <si>
     <t>name</t>
   </si>
@@ -449,9 +449,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -489,9 +489,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -524,26 +524,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -576,26 +559,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -769,15 +735,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH25"/>
+  <dimension ref="A1:AH21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="A10" sqref="A10:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -881,7 +850,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -979,7 +948,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1080,7 +1049,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -1181,7 +1150,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -1282,7 +1251,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -1380,7 +1349,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1478,7 +1447,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -1573,7 +1542,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -1674,7 +1643,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -1682,31 +1651,31 @@
         <v>94</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="D10">
-        <v>7.3</v>
+        <v>6.5</v>
       </c>
       <c r="E10">
-        <v>-0.6</v>
+        <v>-9.1</v>
       </c>
       <c r="F10">
-        <v>3.6</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="H10">
-        <v>-3.8</v>
+        <v>-13.4</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>-3.5</v>
       </c>
       <c r="J10">
-        <v>-5.9</v>
+        <v>-6.8</v>
       </c>
       <c r="K10">
-        <v>50.7</v>
+        <v>56</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1721,43 +1690,46 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="R10">
-        <v>55.6</v>
+        <v>86</v>
       </c>
       <c r="S10">
-        <v>29.5</v>
+        <v>29.2</v>
       </c>
       <c r="T10">
-        <v>252.9</v>
+        <v>194.3</v>
       </c>
       <c r="U10">
-        <v>1018.4</v>
+        <v>1027.0999999999999</v>
       </c>
       <c r="V10">
-        <v>16.2</v>
+        <v>11</v>
       </c>
       <c r="W10">
         <v>16</v>
       </c>
       <c r="X10">
-        <v>195.2</v>
+        <v>108</v>
       </c>
       <c r="Y10">
-        <v>7.7</v>
+        <v>9.4</v>
       </c>
       <c r="Z10">
         <v>4</v>
       </c>
+      <c r="AA10">
+        <v>10</v>
+      </c>
       <c r="AB10" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="AC10" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="AD10">
-        <v>0.32</v>
+        <v>0.5</v>
       </c>
       <c r="AE10" t="s">
         <v>56</v>
@@ -1769,10 +1741,10 @@
         <v>58</v>
       </c>
       <c r="AH10" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -1780,40 +1752,43 @@
         <v>94</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>11.2</v>
       </c>
       <c r="E11">
-        <v>2.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F11">
-        <v>6.3</v>
+        <v>8.6</v>
       </c>
       <c r="G11">
-        <v>12</v>
+        <v>11.2</v>
       </c>
       <c r="H11">
-        <v>-0.8</v>
+        <v>2.4</v>
       </c>
       <c r="I11">
-        <v>3.6</v>
+        <v>6.4</v>
       </c>
       <c r="J11">
-        <v>-6.9</v>
+        <v>4</v>
       </c>
       <c r="K11">
-        <v>39.6</v>
+        <v>74.2</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>9.3940000000000001</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>45.83</v>
+      </c>
+      <c r="O11" t="s">
+        <v>35</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1822,55 +1797,58 @@
         <v>0</v>
       </c>
       <c r="R11">
-        <v>47.9</v>
+        <v>64.099999999999994</v>
       </c>
       <c r="S11">
-        <v>24.5</v>
+        <v>26.2</v>
       </c>
       <c r="T11">
-        <v>228.5</v>
+        <v>199.9</v>
       </c>
       <c r="U11">
-        <v>1022.4</v>
+        <v>1010.3</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>79.8</v>
       </c>
       <c r="W11">
-        <v>16</v>
+        <v>14.3</v>
       </c>
       <c r="X11">
-        <v>191.7</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="Y11">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="Z11">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="AA11">
+        <v>10</v>
       </c>
       <c r="AB11" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="AC11" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="AD11">
-        <v>0.37</v>
+        <v>0.51</v>
       </c>
       <c r="AE11" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="AF11" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AG11" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="AH11" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1878,94 +1856,103 @@
         <v>94</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="D12">
-        <v>8.1</v>
+        <v>4.5</v>
       </c>
       <c r="E12">
-        <v>-1.9</v>
+        <v>-9.5</v>
       </c>
       <c r="F12">
-        <v>2.2000000000000002</v>
+        <v>-4.3</v>
       </c>
       <c r="G12">
-        <v>8.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H12">
-        <v>-4.3</v>
+        <v>-13.6</v>
       </c>
       <c r="I12">
-        <v>1.1000000000000001</v>
+        <v>-9.6999999999999993</v>
       </c>
       <c r="J12">
-        <v>-2.6</v>
+        <v>-8.5</v>
       </c>
       <c r="K12">
-        <v>71.5</v>
+        <v>73.7</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>12.823</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>20.83</v>
+      </c>
+      <c r="O12" t="s">
+        <v>113</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>0.1</v>
+      </c>
+      <c r="R12">
+        <v>51.8</v>
       </c>
       <c r="S12">
-        <v>10.9</v>
+        <v>27.4</v>
       </c>
       <c r="T12">
-        <v>302.89999999999998</v>
+        <v>302.39999999999998</v>
       </c>
       <c r="U12">
-        <v>1033.9000000000001</v>
+        <v>1011</v>
       </c>
       <c r="V12">
-        <v>5.9</v>
+        <v>74.2</v>
       </c>
       <c r="W12">
-        <v>16</v>
+        <v>11.8</v>
       </c>
       <c r="X12">
-        <v>163.80000000000001</v>
+        <v>155.6</v>
       </c>
       <c r="Y12">
-        <v>6.9</v>
+        <v>13.6</v>
       </c>
       <c r="Z12">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="AA12">
+        <v>10</v>
       </c>
       <c r="AB12" t="s">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="AC12" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="AD12">
-        <v>0.41</v>
+        <v>0.52</v>
       </c>
       <c r="AE12" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="AF12" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="AG12" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="AH12" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -1973,100 +1960,100 @@
         <v>94</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="D13">
-        <v>8.6</v>
+        <v>-1.8</v>
       </c>
       <c r="E13">
-        <v>-2.8</v>
+        <v>-9</v>
       </c>
       <c r="F13">
-        <v>3.7</v>
+        <v>-5.7</v>
       </c>
       <c r="G13">
-        <v>6.4</v>
+        <v>-8</v>
       </c>
       <c r="H13">
-        <v>-4.5999999999999996</v>
+        <v>-16.3</v>
       </c>
       <c r="I13">
-        <v>1.1000000000000001</v>
+        <v>-13</v>
       </c>
       <c r="J13">
-        <v>-0.5</v>
+        <v>-12.6</v>
       </c>
       <c r="K13">
-        <v>74.7</v>
+        <v>58.7</v>
       </c>
       <c r="L13">
-        <v>6.0209999999999999</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>45.83</v>
-      </c>
-      <c r="O13" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="R13">
-        <v>48.1</v>
+        <v>68.7</v>
       </c>
       <c r="S13">
-        <v>22.3</v>
+        <v>41.7</v>
       </c>
       <c r="T13">
-        <v>178.3</v>
+        <v>257.39999999999998</v>
       </c>
       <c r="U13">
-        <v>1028.9000000000001</v>
+        <v>1015.7</v>
       </c>
       <c r="V13">
-        <v>58</v>
+        <v>58.2</v>
       </c>
       <c r="W13">
-        <v>15.3</v>
+        <v>13.4</v>
       </c>
       <c r="X13">
-        <v>33.200000000000003</v>
+        <v>123.6</v>
       </c>
       <c r="Y13">
-        <v>1.3</v>
+        <v>10.9</v>
       </c>
       <c r="Z13">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="AA13">
+        <v>10</v>
       </c>
       <c r="AB13" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="AC13" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="AD13">
-        <v>0.44</v>
+        <v>0.54</v>
       </c>
       <c r="AE13" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF13" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="AG13" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="AH13" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -2074,100 +2061,103 @@
         <v>94</v>
       </c>
       <c r="C14" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="D14">
-        <v>6.5</v>
+        <v>24.1</v>
       </c>
       <c r="E14">
-        <v>-9.1</v>
+        <v>5.2</v>
       </c>
       <c r="F14">
-        <v>1.1000000000000001</v>
+        <v>14.5</v>
       </c>
       <c r="G14">
-        <v>2.6</v>
+        <v>24.1</v>
       </c>
       <c r="H14">
-        <v>-13.4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I14">
-        <v>-3.5</v>
+        <v>14.1</v>
       </c>
       <c r="J14">
-        <v>-6.8</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="K14">
-        <v>56</v>
+        <v>67.400000000000006</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>3.2650000000000001</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>12.5</v>
+      </c>
+      <c r="O14" t="s">
+        <v>35</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>86</v>
+        <v>73.8</v>
       </c>
       <c r="S14">
-        <v>29.2</v>
+        <v>25.6</v>
       </c>
       <c r="T14">
-        <v>194.3</v>
+        <v>245.8</v>
       </c>
       <c r="U14">
-        <v>1027.0999999999999</v>
+        <v>1012.5</v>
       </c>
       <c r="V14">
-        <v>11</v>
+        <v>53.7</v>
       </c>
       <c r="W14">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="X14">
-        <v>108</v>
+        <v>151.30000000000001</v>
       </c>
       <c r="Y14">
-        <v>9.4</v>
+        <v>13</v>
       </c>
       <c r="Z14">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AA14">
         <v>10</v>
       </c>
       <c r="AB14" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="AC14" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="AD14">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AE14" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="AF14" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="AG14" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="AH14" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -2175,40 +2165,40 @@
         <v>94</v>
       </c>
       <c r="C15" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="D15">
-        <v>11.2</v>
+        <v>22.5</v>
       </c>
       <c r="E15">
-        <v>4.4000000000000004</v>
+        <v>2.7</v>
       </c>
       <c r="F15">
-        <v>8.6</v>
+        <v>13.9</v>
       </c>
       <c r="G15">
-        <v>11.2</v>
+        <v>22.5</v>
       </c>
       <c r="H15">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="I15">
-        <v>6.4</v>
+        <v>13.8</v>
       </c>
       <c r="J15">
-        <v>4</v>
+        <v>5.2</v>
       </c>
       <c r="K15">
-        <v>74.2</v>
+        <v>59.9</v>
       </c>
       <c r="L15">
-        <v>9.3940000000000001</v>
+        <v>0.64</v>
       </c>
       <c r="M15">
         <v>100</v>
       </c>
       <c r="N15">
-        <v>45.83</v>
+        <v>12.5</v>
       </c>
       <c r="O15" t="s">
         <v>35</v>
@@ -2220,58 +2210,58 @@
         <v>0</v>
       </c>
       <c r="R15">
-        <v>64.099999999999994</v>
+        <v>56.9</v>
       </c>
       <c r="S15">
-        <v>26.2</v>
+        <v>30.2</v>
       </c>
       <c r="T15">
-        <v>199.9</v>
+        <v>261.10000000000002</v>
       </c>
       <c r="U15">
-        <v>1010.3</v>
+        <v>1007.9</v>
       </c>
       <c r="V15">
-        <v>79.8</v>
+        <v>44.1</v>
       </c>
       <c r="W15">
-        <v>14.3</v>
+        <v>15.7</v>
       </c>
       <c r="X15">
-        <v>40.200000000000003</v>
+        <v>124.5</v>
       </c>
       <c r="Y15">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="Z15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA15">
         <v>10</v>
       </c>
       <c r="AB15" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="AC15" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="AD15">
-        <v>0.51</v>
+        <v>0.47</v>
       </c>
       <c r="AE15" t="s">
         <v>38</v>
       </c>
       <c r="AF15" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="AG15" t="s">
         <v>35</v>
       </c>
       <c r="AH15" t="s">
-        <v>111</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -2279,103 +2269,100 @@
         <v>94</v>
       </c>
       <c r="C16" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="D16">
-        <v>4.5</v>
+        <v>16.3</v>
       </c>
       <c r="E16">
-        <v>-9.5</v>
+        <v>1.3</v>
       </c>
       <c r="F16">
-        <v>-4.3</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="G16">
-        <v>1.1000000000000001</v>
+        <v>16.3</v>
       </c>
       <c r="H16">
-        <v>-13.6</v>
+        <v>-1.8</v>
       </c>
       <c r="I16">
-        <v>-9.6999999999999993</v>
+        <v>8.6</v>
       </c>
       <c r="J16">
-        <v>-8.5</v>
+        <v>-2.4</v>
       </c>
       <c r="K16">
-        <v>73.7</v>
+        <v>45.7</v>
       </c>
       <c r="L16">
-        <v>12.823</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>20.83</v>
-      </c>
-      <c r="O16" t="s">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>51.8</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="S16">
-        <v>27.4</v>
+        <v>37.9</v>
       </c>
       <c r="T16">
-        <v>302.39999999999998</v>
+        <v>252.1</v>
       </c>
       <c r="U16">
-        <v>1011</v>
+        <v>1015.1</v>
       </c>
       <c r="V16">
-        <v>74.2</v>
+        <v>44</v>
       </c>
       <c r="W16">
-        <v>11.8</v>
+        <v>15.9</v>
       </c>
       <c r="X16">
-        <v>155.6</v>
+        <v>196.3</v>
       </c>
       <c r="Y16">
-        <v>13.6</v>
+        <v>16.8</v>
       </c>
       <c r="Z16">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AA16">
         <v>10</v>
       </c>
       <c r="AB16" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AC16" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="AD16">
-        <v>0.52</v>
+        <v>0.49</v>
       </c>
       <c r="AE16" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="AF16" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="AG16" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="AH16" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -2383,100 +2370,103 @@
         <v>94</v>
       </c>
       <c r="C17" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="D17">
-        <v>-1.8</v>
+        <v>12.4</v>
       </c>
       <c r="E17">
-        <v>-9</v>
+        <v>2.4</v>
       </c>
       <c r="F17">
-        <v>-5.7</v>
+        <v>6.4</v>
       </c>
       <c r="G17">
-        <v>-8</v>
+        <v>12.4</v>
       </c>
       <c r="H17">
-        <v>-16.3</v>
+        <v>-1.6</v>
       </c>
       <c r="I17">
-        <v>-13</v>
+        <v>4.7</v>
       </c>
       <c r="J17">
-        <v>-12.6</v>
+        <v>1.9</v>
       </c>
       <c r="K17">
-        <v>58.7</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5.8630000000000004</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>37.5</v>
+      </c>
+      <c r="O17" t="s">
+        <v>35</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>68.7</v>
+        <v>46.1</v>
       </c>
       <c r="S17">
-        <v>41.7</v>
+        <v>17.5</v>
       </c>
       <c r="T17">
-        <v>257.39999999999998</v>
+        <v>334.2</v>
       </c>
       <c r="U17">
-        <v>1015.7</v>
+        <v>1013.5</v>
       </c>
       <c r="V17">
-        <v>58.2</v>
+        <v>92.3</v>
       </c>
       <c r="W17">
-        <v>13.4</v>
+        <v>14.5</v>
       </c>
       <c r="X17">
-        <v>123.6</v>
+        <v>61.3</v>
       </c>
       <c r="Y17">
-        <v>10.9</v>
+        <v>5.3</v>
       </c>
       <c r="Z17">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AA17">
         <v>10</v>
       </c>
       <c r="AB17" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="AC17" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="AD17">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AE17" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AF17" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="AG17" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="AH17" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -2484,43 +2474,40 @@
         <v>94</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D18">
-        <v>24.1</v>
+        <v>28.7</v>
       </c>
       <c r="E18">
-        <v>5.2</v>
+        <v>15.3</v>
       </c>
       <c r="F18">
-        <v>14.5</v>
+        <v>21.7</v>
       </c>
       <c r="G18">
-        <v>24.1</v>
+        <v>28.3</v>
       </c>
       <c r="H18">
-        <v>4.0999999999999996</v>
+        <v>15.3</v>
       </c>
       <c r="I18">
-        <v>14.1</v>
+        <v>21.7</v>
       </c>
       <c r="J18">
-        <v>8.1999999999999993</v>
+        <v>14.9</v>
       </c>
       <c r="K18">
-        <v>67.400000000000006</v>
+        <v>68.900000000000006</v>
       </c>
       <c r="L18">
-        <v>3.2650000000000001</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>12.5</v>
-      </c>
-      <c r="O18" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -2529,58 +2516,58 @@
         <v>0</v>
       </c>
       <c r="R18">
-        <v>73.8</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="S18">
-        <v>25.6</v>
+        <v>15</v>
       </c>
       <c r="T18">
-        <v>245.8</v>
+        <v>323.39999999999998</v>
       </c>
       <c r="U18">
-        <v>1012.5</v>
+        <v>1016.6</v>
       </c>
       <c r="V18">
-        <v>53.7</v>
+        <v>25.5</v>
       </c>
       <c r="W18">
-        <v>15.5</v>
+        <v>15.2</v>
       </c>
       <c r="X18">
-        <v>151.30000000000001</v>
+        <v>237.5</v>
       </c>
       <c r="Y18">
-        <v>13</v>
+        <v>20.5</v>
       </c>
       <c r="Z18">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AA18">
         <v>10</v>
       </c>
       <c r="AB18" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="AC18" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="AD18">
-        <v>0.44</v>
+        <v>0.91</v>
       </c>
       <c r="AE18" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF18" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="AG18" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="AH18" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -2588,43 +2575,40 @@
         <v>94</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="D19">
-        <v>22.5</v>
+        <v>31.1</v>
       </c>
       <c r="E19">
-        <v>2.7</v>
+        <v>13.4</v>
       </c>
       <c r="F19">
-        <v>13.9</v>
+        <v>22.6</v>
       </c>
       <c r="G19">
-        <v>22.5</v>
+        <v>30.5</v>
       </c>
       <c r="H19">
-        <v>0.8</v>
+        <v>13.4</v>
       </c>
       <c r="I19">
-        <v>13.8</v>
+        <v>22.6</v>
       </c>
       <c r="J19">
-        <v>5.2</v>
+        <v>14.4</v>
       </c>
       <c r="K19">
-        <v>59.9</v>
+        <v>63.7</v>
       </c>
       <c r="L19">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>12.5</v>
-      </c>
-      <c r="O19" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -2633,58 +2617,58 @@
         <v>0</v>
       </c>
       <c r="R19">
-        <v>56.9</v>
+        <v>14.8</v>
       </c>
       <c r="S19">
-        <v>30.2</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="T19">
-        <v>261.10000000000002</v>
+        <v>346.3</v>
       </c>
       <c r="U19">
-        <v>1007.9</v>
+        <v>1019.4</v>
       </c>
       <c r="V19">
-        <v>44.1</v>
+        <v>2.6</v>
       </c>
       <c r="W19">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="X19">
-        <v>124.5</v>
+        <v>329.5</v>
       </c>
       <c r="Y19">
-        <v>11</v>
+        <v>28.6</v>
       </c>
       <c r="Z19">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AA19">
         <v>10</v>
       </c>
       <c r="AB19" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AC19" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="AD19">
-        <v>0.47</v>
+        <v>0.95</v>
       </c>
       <c r="AE19" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="AF19" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="AG19" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AH19" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -2692,40 +2676,43 @@
         <v>94</v>
       </c>
       <c r="C20" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="D20">
-        <v>16.3</v>
+        <v>32.4</v>
       </c>
       <c r="E20">
-        <v>1.3</v>
+        <v>18.7</v>
       </c>
       <c r="F20">
-        <v>9.6999999999999993</v>
+        <v>24.6</v>
       </c>
       <c r="G20">
-        <v>16.3</v>
+        <v>33.6</v>
       </c>
       <c r="H20">
-        <v>-1.8</v>
+        <v>18.7</v>
       </c>
       <c r="I20">
-        <v>8.6</v>
+        <v>24.8</v>
       </c>
       <c r="J20">
-        <v>-2.4</v>
+        <v>18.3</v>
       </c>
       <c r="K20">
-        <v>45.7</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>1.9139999999999999</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>16.670000000000002</v>
+      </c>
+      <c r="O20" t="s">
+        <v>35</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -2734,58 +2721,58 @@
         <v>0</v>
       </c>
       <c r="R20">
-        <v>64.900000000000006</v>
+        <v>50</v>
       </c>
       <c r="S20">
-        <v>37.9</v>
+        <v>16.8</v>
       </c>
       <c r="T20">
-        <v>252.1</v>
+        <v>227.6</v>
       </c>
       <c r="U20">
-        <v>1015.1</v>
+        <v>1015.3</v>
       </c>
       <c r="V20">
-        <v>44</v>
+        <v>37.4</v>
       </c>
       <c r="W20">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="X20">
-        <v>196.3</v>
+        <v>243.3</v>
       </c>
       <c r="Y20">
-        <v>16.8</v>
+        <v>21.1</v>
       </c>
       <c r="Z20">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AA20">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="AB20" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AC20" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AD20">
-        <v>0.49</v>
+        <v>0.97</v>
       </c>
       <c r="AE20" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF20" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AG20" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="AH20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -2793,40 +2780,40 @@
         <v>94</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="D21">
-        <v>12.4</v>
+        <v>24.6</v>
       </c>
       <c r="E21">
-        <v>2.4</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="F21">
-        <v>6.4</v>
+        <v>21.4</v>
       </c>
       <c r="G21">
-        <v>12.4</v>
+        <v>24.6</v>
       </c>
       <c r="H21">
-        <v>-1.6</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="I21">
-        <v>4.7</v>
+        <v>21.4</v>
       </c>
       <c r="J21">
-        <v>1.9</v>
+        <v>12.3</v>
       </c>
       <c r="K21">
-        <v>74.400000000000006</v>
+        <v>58.5</v>
       </c>
       <c r="L21">
-        <v>5.8630000000000004</v>
+        <v>0.874</v>
       </c>
       <c r="M21">
         <v>100</v>
       </c>
       <c r="N21">
-        <v>37.5</v>
+        <v>20.83</v>
       </c>
       <c r="O21" t="s">
         <v>35</v>
@@ -2838,464 +2825,54 @@
         <v>0</v>
       </c>
       <c r="R21">
-        <v>46.1</v>
+        <v>42.7</v>
       </c>
       <c r="S21">
-        <v>17.5</v>
+        <v>18.2</v>
       </c>
       <c r="T21">
-        <v>334.2</v>
+        <v>295.39999999999998</v>
       </c>
       <c r="U21">
-        <v>1013.5</v>
+        <v>1015.3</v>
       </c>
       <c r="V21">
-        <v>92.3</v>
+        <v>65.7</v>
       </c>
       <c r="W21">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="X21">
-        <v>61.3</v>
+        <v>228.1</v>
       </c>
       <c r="Y21">
-        <v>5.3</v>
+        <v>19.7</v>
       </c>
       <c r="Z21">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AA21">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AB21" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="AC21" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="AD21">
-        <v>0.5</v>
+        <v>0.99</v>
       </c>
       <c r="AE21" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="AF21" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="AG21" t="s">
         <v>35</v>
       </c>
       <c r="AH21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22">
-        <v>94</v>
-      </c>
-      <c r="C22" t="s">
-        <v>89</v>
-      </c>
-      <c r="D22">
-        <v>28.7</v>
-      </c>
-      <c r="E22">
-        <v>15.3</v>
-      </c>
-      <c r="F22">
-        <v>21.7</v>
-      </c>
-      <c r="G22">
-        <v>28.3</v>
-      </c>
-      <c r="H22">
-        <v>15.3</v>
-      </c>
-      <c r="I22">
-        <v>21.7</v>
-      </c>
-      <c r="J22">
-        <v>14.9</v>
-      </c>
-      <c r="K22">
-        <v>68.900000000000006</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="S22">
-        <v>15</v>
-      </c>
-      <c r="T22">
-        <v>323.39999999999998</v>
-      </c>
-      <c r="U22">
-        <v>1016.6</v>
-      </c>
-      <c r="V22">
-        <v>25.5</v>
-      </c>
-      <c r="W22">
-        <v>15.2</v>
-      </c>
-      <c r="X22">
-        <v>237.5</v>
-      </c>
-      <c r="Y22">
-        <v>20.5</v>
-      </c>
-      <c r="Z22">
-        <v>10</v>
-      </c>
-      <c r="AA22">
-        <v>10</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD22">
-        <v>0.91</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF22" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23">
-        <v>94</v>
-      </c>
-      <c r="C23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23">
-        <v>31.1</v>
-      </c>
-      <c r="E23">
-        <v>13.4</v>
-      </c>
-      <c r="F23">
-        <v>22.6</v>
-      </c>
-      <c r="G23">
-        <v>30.5</v>
-      </c>
-      <c r="H23">
-        <v>13.4</v>
-      </c>
-      <c r="I23">
-        <v>22.6</v>
-      </c>
-      <c r="J23">
-        <v>14.4</v>
-      </c>
-      <c r="K23">
-        <v>63.7</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>14.8</v>
-      </c>
-      <c r="S23">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="T23">
-        <v>346.3</v>
-      </c>
-      <c r="U23">
-        <v>1019.4</v>
-      </c>
-      <c r="V23">
-        <v>2.6</v>
-      </c>
-      <c r="W23">
-        <v>15.8</v>
-      </c>
-      <c r="X23">
-        <v>329.5</v>
-      </c>
-      <c r="Y23">
-        <v>28.6</v>
-      </c>
-      <c r="Z23">
-        <v>9</v>
-      </c>
-      <c r="AA23">
-        <v>10</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD23">
-        <v>0.95</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF23" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG23" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24">
-        <v>94</v>
-      </c>
-      <c r="C24" t="s">
-        <v>96</v>
-      </c>
-      <c r="D24">
-        <v>32.4</v>
-      </c>
-      <c r="E24">
-        <v>18.7</v>
-      </c>
-      <c r="F24">
-        <v>24.6</v>
-      </c>
-      <c r="G24">
-        <v>33.6</v>
-      </c>
-      <c r="H24">
-        <v>18.7</v>
-      </c>
-      <c r="I24">
-        <v>24.8</v>
-      </c>
-      <c r="J24">
-        <v>18.3</v>
-      </c>
-      <c r="K24">
-        <v>69.900000000000006</v>
-      </c>
-      <c r="L24">
-        <v>1.9139999999999999</v>
-      </c>
-      <c r="M24">
-        <v>100</v>
-      </c>
-      <c r="N24">
-        <v>16.670000000000002</v>
-      </c>
-      <c r="O24" t="s">
-        <v>35</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>50</v>
-      </c>
-      <c r="S24">
-        <v>16.8</v>
-      </c>
-      <c r="T24">
-        <v>227.6</v>
-      </c>
-      <c r="U24">
-        <v>1015.3</v>
-      </c>
-      <c r="V24">
-        <v>37.4</v>
-      </c>
-      <c r="W24">
-        <v>15.5</v>
-      </c>
-      <c r="X24">
-        <v>243.3</v>
-      </c>
-      <c r="Y24">
-        <v>21.1</v>
-      </c>
-      <c r="Z24">
-        <v>10</v>
-      </c>
-      <c r="AA24">
-        <v>60</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD24">
-        <v>0.97</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF24" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25">
-        <v>94</v>
-      </c>
-      <c r="C25" t="s">
-        <v>99</v>
-      </c>
-      <c r="D25">
-        <v>24.6</v>
-      </c>
-      <c r="E25">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="F25">
-        <v>21.4</v>
-      </c>
-      <c r="G25">
-        <v>24.6</v>
-      </c>
-      <c r="H25">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="I25">
-        <v>21.4</v>
-      </c>
-      <c r="J25">
-        <v>12.3</v>
-      </c>
-      <c r="K25">
-        <v>58.5</v>
-      </c>
-      <c r="L25">
-        <v>0.874</v>
-      </c>
-      <c r="M25">
-        <v>100</v>
-      </c>
-      <c r="N25">
-        <v>20.83</v>
-      </c>
-      <c r="O25" t="s">
-        <v>35</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>42.7</v>
-      </c>
-      <c r="S25">
-        <v>18.2</v>
-      </c>
-      <c r="T25">
-        <v>295.39999999999998</v>
-      </c>
-      <c r="U25">
-        <v>1015.3</v>
-      </c>
-      <c r="V25">
-        <v>65.7</v>
-      </c>
-      <c r="W25">
-        <v>15.5</v>
-      </c>
-      <c r="X25">
-        <v>228.1</v>
-      </c>
-      <c r="Y25">
-        <v>19.7</v>
-      </c>
-      <c r="Z25">
-        <v>10</v>
-      </c>
-      <c r="AA25">
-        <v>30</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD25">
-        <v>0.99</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF25" t="s">
-        <v>102</v>
-      </c>
-      <c r="AG25" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH25" t="s">
         <v>45</v>
       </c>
     </row>
